--- a/SE0-audit.xlsx
+++ b/SE0-audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bishwapaiyar42/Desktop/project-4-SEO-OPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72DF079B-7B00-A146-B301-5CE12423BFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBEEBA-F582-3648-B059-1F0CD2F803E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="1640" windowWidth="24700" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="500" windowWidth="27600" windowHeight="19580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">document dos not have meta discription ,document dos not use legable font sizes , tag targets are not sized appropritely </t>
   </si>
   <si>
-    <t>use next generaton imagae extension like WebP</t>
-  </si>
-  <si>
     <t>remove unused font attribute and use correct font size, remove unuse link</t>
   </si>
   <si>
@@ -81,15 +78,9 @@
     <t>NO meta discription// text image file// link  tag and target // unused linked</t>
   </si>
   <si>
-    <t>Reziging image file/// change image file format to Webp PNG  format // removed css and java script rendering</t>
-  </si>
-  <si>
     <t xml:space="preserve">html langauage specify , put suffecent contrast for clearity// use symentic html h 1 h2 follow/ language english// text image file converted to text </t>
   </si>
   <si>
-    <t xml:space="preserve">image text file change, and image formate and image size changed / remove blockages </t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/en-US/                                     https://www.online-convert.com/</t>
   </si>
   <si>
@@ -99,13 +90,22 @@
     <t>https://www.w3schools.com/            https://developers.google.com/web/fundamentals/accessibility/how-to-review?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t>Performance (90%)</t>
-  </si>
-  <si>
     <t>SEO (97%)</t>
   </si>
   <si>
     <t>Accessibility (84%)</t>
+  </si>
+  <si>
+    <t>Performance (91%)</t>
+  </si>
+  <si>
+    <t>Reziging image file/// change image file format to Webp   format // removed css and java script rendering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use next generaton imagae extension like WebP. // unblock html and stylesheet rendering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image text file change, and image formate and image size changed / unblock html and style sheet // minify css </t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -642,67 +642,67 @@
     </row>
     <row r="2" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" s="21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">

--- a/SE0-audit.xlsx
+++ b/SE0-audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bishwapaiyar42/Desktop/project-4-SEO-OPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FCBEEBA-F582-3648-B059-1F0CD2F803E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571DE0C-F3B5-A04A-8894-3BDBB95C33A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="500" windowWidth="27600" windowHeight="19580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5040" yWindow="500" windowWidth="19800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t xml:space="preserve">    </t>
   </si>
   <si>
-    <t>Large Image size// ccss and java script render blockage</t>
-  </si>
-  <si>
     <t xml:space="preserve">background  low opacity// HTML language defult// title blank </t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t xml:space="preserve">image text file change, and image formate and image size changed / unblock html and style sheet // minify css </t>
+  </si>
+  <si>
+    <t>Large Image size// ccss and java script render blockage // minifyig css</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -642,50 +642,50 @@
     </row>
     <row r="2" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="20" t="s">
-        <v>24</v>
-      </c>
       <c r="F2" s="21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>7</v>
@@ -697,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">

--- a/SE0-audit.xlsx
+++ b/SE0-audit.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bishwapaiyar42/Desktop/project-4-SEO-OPT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5571DE0C-F3B5-A04A-8894-3BDBB95C33A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20212B7E-4806-E040-8D47-7CEB0B2DED91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5040" yWindow="500" windowWidth="19800" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2980" yWindow="500" windowWidth="33540" windowHeight="19620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
   <si>
     <t>Category</t>
   </si>
@@ -51,33 +51,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t xml:space="preserve">background color do not have suffecent contrast, heading element is not sequentially order, link do not have discernible names </t>
-  </si>
-  <si>
-    <t xml:space="preserve">document dos not have meta discription ,document dos not use legable font sizes , tag targets are not sized appropritely </t>
-  </si>
-  <si>
-    <t>remove unused font attribute and use correct font size, remove unuse link</t>
-  </si>
-  <si>
-    <t>removed &lt;p&gt; css value and change font size for navbar, remove link in the footer contaier which is not been used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">image and text and background color visibiliblity  changed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">background  low opacity// HTML language defult// title blank </t>
-  </si>
-  <si>
-    <t>NO meta discription// text image file// link  tag and target // unused linked</t>
-  </si>
-  <si>
-    <t xml:space="preserve">html langauage specify , put suffecent contrast for clearity// use symentic html h 1 h2 follow/ language english// text image file converted to text </t>
-  </si>
-  <si>
     <t>https://developer.mozilla.org/en-US/                                     https://www.online-convert.com/</t>
   </si>
   <si>
@@ -87,32 +60,174 @@
     <t>https://www.w3schools.com/            https://developers.google.com/web/fundamentals/accessibility/how-to-review?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
-    <t>SEO (97%)</t>
-  </si>
-  <si>
-    <t>Accessibility (84%)</t>
-  </si>
-  <si>
-    <t>Performance (91%)</t>
-  </si>
-  <si>
-    <t>Reziging image file/// change image file format to Webp   format // removed css and java script rendering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">use next generaton imagae extension like WebP. // unblock html and stylesheet rendering </t>
-  </si>
-  <si>
-    <t xml:space="preserve">image text file change, and image formate and image size changed / unblock html and style sheet // minify css </t>
-  </si>
-  <si>
-    <t>Large Image size// ccss and java script render blockage // minifyig css</t>
+    <t>Large Image size</t>
+  </si>
+  <si>
+    <t>Images used in the website are of large size and impacting the performance of the site</t>
+  </si>
+  <si>
+    <t>Images used should be compressed for faster loading of the website</t>
+  </si>
+  <si>
+    <t>Compress the existing image resources</t>
+  </si>
+  <si>
+    <t>minifyng CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CSS often  use unnecessary characters in the source code  and use whitespace, strips comments took more file size and facilitate slower loading of the site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minifying a CSS file implies the removal of unnecessary characters in the source code to reduce the file size and facilitate faster loading of the site. resulting in faster response times and lower bandwidth costs. </t>
+  </si>
+  <si>
+    <t>removes whitespace, strips comments, combines files, and optimizes/shortens by using vs code minifiy extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">css and java script rendering blockage </t>
+  </si>
+  <si>
+    <t>Render blocking JavaScript and CSS are files that prevent a website from displaying a web page before loading these files and slow down web perfermance.</t>
+  </si>
+  <si>
+    <t>Performance is critical for keeping a visitor on your page, Elemanate rendering css and java script significant increases in conversions after improving performance.</t>
+  </si>
+  <si>
+    <t>reduce the impact of these render-blocking URLs by inlining critical resources, deferring non-critical resources, and removing anything unused.</t>
+  </si>
+  <si>
+    <t>https://web.dev/render-blocking-resources/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Background and foreground colors do not have a sufficient contrast ratio.</t>
+  </si>
+  <si>
+    <t>Text that is 18 pt, or 14 pt and bold, needs a contrast ratio of 3:1. and All other text needs a contrast ratio of 4.5:1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useing the color picker to adjust the color until its contrast is high enough. </t>
+  </si>
+  <si>
+    <t>Resizing the text and chaging the text image format to plain text</t>
+  </si>
+  <si>
+    <t>reandom  background brightness —can be hard to see and read.</t>
+  </si>
+  <si>
+    <t>Text that has a low contrast ratio and small size of text is difficut to read and see.</t>
+  </si>
+  <si>
+    <t>text color and size</t>
+  </si>
+  <si>
+    <t>HTML language Defult</t>
+  </si>
+  <si>
+    <t>Title is blank</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> adjust the background color until its contrast is high enough and Choose Your Colors Carefully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Lang tag is designed to signal screen readers pronunciation engines to switch to another language. So web accibility its important to define language </t>
+  </si>
+  <si>
+    <t>swith the language in to English because English is the defult language for most common website this site.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">swith the language to the intended clint </t>
+  </si>
+  <si>
+    <t>website title is helpful for both users and search engines.</t>
+  </si>
+  <si>
+    <t> A title should have lots of relevancy with the page content, if you miss that then search engines will figure it out easily and will not rank the page </t>
+  </si>
+  <si>
+    <t>Use a suitable and relavent title which represent the web page its self.</t>
+  </si>
+  <si>
+    <t>Many search engines rank pages based on how mobile-friendly they are. Without a viewport meta tag, mobile devices render pages at typical desktop screen widths and then scale the pages down, making them difficult to read.</t>
+  </si>
+  <si>
+    <t>Setting the viewport meta tag lets you control the width and scaling of the viewport so that it's sized correctly on all devices.</t>
+  </si>
+  <si>
+    <t>text image file</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> images  file slow down your web pages loading perferamance  which creates a less than optimal user experience. </t>
+  </si>
+  <si>
+    <t>remove image text file and replace text will improve loading speed, site will rank higher in search engine result.</t>
+  </si>
+  <si>
+    <t>Remove any text file and replace plain text and give text style if necessary.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> link text clearly conveys a hyperlink's target, both users and search engines can more easily understand your content and how it relates to other pages.
+</t>
+  </si>
+  <si>
+    <t>link text  and  hyperlink's which has no used need removed and link properly to the relavent taget</t>
+  </si>
+  <si>
+    <t>unuse link and target</t>
+  </si>
+  <si>
+    <t>home page unused link removed. Social link are target properly.</t>
+  </si>
+  <si>
+    <t>Visibility and design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link to contact page is random and poorly design </t>
+  </si>
+  <si>
+    <t>Does not have a &lt;meta name</t>
+  </si>
+  <si>
+    <t>the document's &lt;head&gt; contains use  a &lt;meta name="viewport"&gt; tag. And content attribute.</t>
+  </si>
+  <si>
+    <t>https://web.dev/document-title/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://csscompressor.com/</t>
+  </si>
+  <si>
+    <t>https://web.dev/link-text/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://openclassroomsinternational040.workplace.com/work/knowledge/1315020428683493</t>
+  </si>
+  <si>
+    <t>https://web.dev/http-status-code/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/tags/tag_meta.asp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">re- design home page and contact page and its contants </t>
+  </si>
+  <si>
+    <t xml:space="preserve">home page and contact visibility of background and text improve also content include link and form re-design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Perfermonce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Accessibility </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           SEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -133,12 +248,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
@@ -152,12 +261,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
@@ -168,7 +271,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,19 +280,6 @@
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -202,7 +292,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -215,12 +305,54 @@
     <font>
       <sz val="18"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,8 +380,29 @@
         <fgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -262,15 +415,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -303,80 +447,215 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="8" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="6" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="9" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Calculation" xfId="2" builtinId="22"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
+  <cellStyles count="8">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="1" builtinId="22"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="Input" xfId="6" builtinId="20"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="3" builtinId="10"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Note" xfId="2" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFA25224"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -389,59 +668,119 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Berlin">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Berlin">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="9D360E"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="F09415"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C1B56B"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="4BAF73"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="5AA6C0"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="D17DF9"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="FA7E5C"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="FFAE3E"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="FCC77E"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Berlin">
       <a:majorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Calibri"/>
-        <a:cs typeface="Calibri"/>
+        <a:latin typeface="Trebuchet MS" panose="020B0603020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Berlin">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -450,23 +789,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="60000"/>
+                <a:satMod val="100000"/>
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="70000"/>
+                <a:satMod val="100000"/>
+                <a:lumMod val="100000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -476,23 +808,23 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
+                <a:tint val="94000"/>
                 <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
+                <a:shade val="100000"/>
                 <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
+                <a:shade val="78000"/>
+                <a:satMod val="120000"/>
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -500,26 +832,23 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -553,34 +882,42 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="96000"/>
+                <a:shade val="100000"/>
+                <a:hueMod val="270000"/>
+                <a:satMod val="200000"/>
+                <a:lumMod val="128000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:shade val="100000"/>
+                <a:hueMod val="100000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+                <a:hueMod val="44000"/>
+                <a:satMod val="200000"/>
+                <a:lumMod val="69000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="2520000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Berlin" id="{7B5DBA9E-B069-418E-9360-A61BDD0615A4}" vid="{C0CBE056-4EF4-4D92-969E-947779DA7AAA}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -589,7 +926,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="50" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -600,8 +937,8 @@
     <col min="7" max="26" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="49" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:26" s="25" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -610,129 +947,287 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-    </row>
-    <row r="2" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+    </row>
+    <row r="2" spans="1:26" s="25" customFormat="1" ht="49" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+    </row>
+    <row r="3" spans="1:26" s="11" customFormat="1" ht="26" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:26" s="26" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19"/>
+      <c r="B4" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="26" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="26" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="B6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="F6" s="20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" s="29" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="27"/>
+      <c r="B7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="F7" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="29" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" s="11" customFormat="1" ht="100" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="E8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="29" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="29" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="29" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="31"/>
+      <c r="B11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="33" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" s="33" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:26" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E15" s="3"/>
+    </row>
+    <row r="14" spans="1:26" s="33" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="21"/>
+      <c r="B14" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" s="33" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21"/>
+      <c r="B15" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://developer.mozilla.org/en-US/" xr:uid="{54A2BC53-3111-AD4D-9F3C-0404EED82BF7}"/>
+    <hyperlink ref="F6" r:id="rId1" xr:uid="{2F19718D-199A-5C4D-B9D5-28F52AE50AD1}"/>
+    <hyperlink ref="C12" r:id="rId2" display="https://developer.mozilla.org/docs/Web/HTML/Viewport_meta_tag" xr:uid="{FECB67C2-AEC9-5849-A0D6-D9D9C9627849}"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://developer.mozilla.org/en-US/" xr:uid="{ADDB9681-66FD-7745-8F3F-E47C11E3A05B}"/>
+    <hyperlink ref="F8" r:id="rId4" xr:uid="{53566030-F8D3-7243-9F74-CC4D4167EE7A}"/>
+    <hyperlink ref="F5" r:id="rId5" xr:uid="{33AA5A83-9A9A-E145-9646-71C1F0DC1781}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
